--- a/Code/Results/Cases/Case_6_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_50/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.15946101823639</v>
+        <v>21.89412238184926</v>
       </c>
       <c r="C2">
-        <v>14.29080880336913</v>
+        <v>11.49686224495789</v>
       </c>
       <c r="D2">
-        <v>3.988899624112852</v>
+        <v>3.98212321737497</v>
       </c>
       <c r="E2">
-        <v>6.090072782415228</v>
+        <v>7.034194120250254</v>
       </c>
       <c r="F2">
-        <v>32.56744649964661</v>
+        <v>20.81500362395981</v>
       </c>
       <c r="G2">
-        <v>2.072718159428288</v>
+        <v>2.069546857272832</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.518481350019196</v>
+        <v>7.184128539079144</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.27189157377975</v>
+        <v>11.69788917919817</v>
       </c>
       <c r="O2">
-        <v>25.47065864040905</v>
+        <v>16.35989236196269</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.35854512397216</v>
+        <v>20.40365515716801</v>
       </c>
       <c r="C3">
-        <v>13.37699979869486</v>
+        <v>11.04502035500594</v>
       </c>
       <c r="D3">
-        <v>4.095168447988704</v>
+        <v>3.904170323522174</v>
       </c>
       <c r="E3">
-        <v>6.125768794283426</v>
+        <v>7.054831493805463</v>
       </c>
       <c r="F3">
-        <v>31.12842943505125</v>
+        <v>20.0914831364878</v>
       </c>
       <c r="G3">
-        <v>2.083168362514149</v>
+        <v>2.075443495229644</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.250461209073435</v>
+        <v>6.92827810384834</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.55598546554715</v>
+        <v>11.86910640209475</v>
       </c>
       <c r="O3">
-        <v>24.53951210500411</v>
+        <v>16.0182191044185</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.2592504793105</v>
+        <v>19.43475872647172</v>
       </c>
       <c r="C4">
-        <v>12.78843804579663</v>
+        <v>10.75760758752879</v>
       </c>
       <c r="D4">
-        <v>4.161263226942015</v>
+        <v>3.855288922466746</v>
       </c>
       <c r="E4">
-        <v>6.150506427851264</v>
+        <v>7.072585333772051</v>
       </c>
       <c r="F4">
-        <v>30.25121481690247</v>
+        <v>19.65592866056464</v>
       </c>
       <c r="G4">
-        <v>2.089733289247653</v>
+        <v>2.07917606747004</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.086709181505457</v>
+        <v>6.770172387530366</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.73305034641827</v>
+        <v>11.97765847268666</v>
       </c>
       <c r="O4">
-        <v>23.98136777696124</v>
+        <v>15.82219719566712</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.80019802552116</v>
+        <v>19.02632516473962</v>
       </c>
       <c r="C5">
-        <v>12.54163892012351</v>
+        <v>10.63808269789835</v>
       </c>
       <c r="D5">
-        <v>4.188431234784673</v>
+        <v>3.835129279665808</v>
       </c>
       <c r="E5">
-        <v>6.161273739255942</v>
+        <v>7.081052387884264</v>
       </c>
       <c r="F5">
-        <v>29.89567500003139</v>
+        <v>19.48085193187442</v>
       </c>
       <c r="G5">
-        <v>2.092448324010999</v>
+        <v>2.080726019052707</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.020251054245074</v>
+        <v>6.705579287195691</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.80591810512199</v>
+        <v>12.02275633114964</v>
       </c>
       <c r="O5">
-        <v>23.7574712337407</v>
+        <v>15.74577879163595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.72330831382727</v>
+        <v>18.9576811691319</v>
       </c>
       <c r="C6">
-        <v>12.50023706100942</v>
+        <v>10.61809406075977</v>
       </c>
       <c r="D6">
-        <v>4.192957192525633</v>
+        <v>3.831767766546687</v>
       </c>
       <c r="E6">
-        <v>6.163102477201126</v>
+        <v>7.082531434841336</v>
       </c>
       <c r="F6">
-        <v>29.83676550383377</v>
+        <v>19.45193328737468</v>
       </c>
       <c r="G6">
-        <v>2.092901623653844</v>
+        <v>2.080985153458071</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.009234297464882</v>
+        <v>6.69484656837702</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.81806220821597</v>
+        <v>12.03029690708969</v>
       </c>
       <c r="O6">
-        <v>23.72051217704205</v>
+        <v>15.73329843070093</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.25310419637369</v>
+        <v>19.42930562913705</v>
       </c>
       <c r="C7">
-        <v>12.78513783532612</v>
+        <v>10.75600520465984</v>
       </c>
       <c r="D7">
-        <v>4.161628649789484</v>
+        <v>3.855017992941127</v>
       </c>
       <c r="E7">
-        <v>6.150648888552197</v>
+        <v>7.072694594138512</v>
       </c>
       <c r="F7">
-        <v>30.24641157292189</v>
+        <v>19.65355742661057</v>
       </c>
       <c r="G7">
-        <v>2.089769741016071</v>
+        <v>2.079196852708349</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.085811706876556</v>
+        <v>6.76930179959454</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.73403011654099</v>
+        <v>11.97826318586784</v>
       </c>
       <c r="O7">
-        <v>23.97833365711672</v>
+        <v>15.82115258141505</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.53549185510662</v>
+        <v>21.39131119310873</v>
       </c>
       <c r="C8">
-        <v>13.9813974972046</v>
+        <v>11.34319847990925</v>
       </c>
       <c r="D8">
-        <v>4.025378753092435</v>
+        <v>3.955465643772565</v>
       </c>
       <c r="E8">
-        <v>6.101781311381429</v>
+        <v>7.040227254924712</v>
       </c>
       <c r="F8">
-        <v>32.07013851954914</v>
+        <v>20.56386559485043</v>
       </c>
       <c r="G8">
-        <v>2.076292107415533</v>
+        <v>2.07155722163253</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.425937086028989</v>
+        <v>7.096173488977938</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.36933287222818</v>
+        <v>11.75621455280747</v>
       </c>
       <c r="O8">
-        <v>25.14685558134488</v>
+        <v>16.23923001743621</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.83026520088239</v>
+        <v>24.81636543032519</v>
       </c>
       <c r="C9">
-        <v>16.11227228899595</v>
+        <v>12.41151952566171</v>
       </c>
       <c r="D9">
-        <v>3.76389980797792</v>
+        <v>4.14371012500299</v>
       </c>
       <c r="E9">
-        <v>6.029438467976848</v>
+        <v>7.018970945441723</v>
       </c>
       <c r="F9">
-        <v>35.68563719994962</v>
+        <v>22.40842242983617</v>
       </c>
       <c r="G9">
-        <v>2.05091925642623</v>
+        <v>2.057429648049061</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.096908512207758</v>
+        <v>7.725574912830094</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.67257560690888</v>
+        <v>11.34794850622717</v>
       </c>
       <c r="O9">
-        <v>27.54151568521966</v>
+        <v>17.16777974661625</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.73015045589585</v>
+        <v>27.08094344152789</v>
       </c>
       <c r="C10">
-        <v>17.5523684350199</v>
+        <v>13.14137509648309</v>
       </c>
       <c r="D10">
-        <v>3.573844604842395</v>
+        <v>4.275876714397206</v>
       </c>
       <c r="E10">
-        <v>5.992299648511621</v>
+        <v>7.032113171850601</v>
       </c>
       <c r="F10">
-        <v>38.35686715218302</v>
+        <v>23.78846921568389</v>
       </c>
       <c r="G10">
-        <v>2.032734060101172</v>
+        <v>2.047518590025995</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.589865250969181</v>
+        <v>8.176820548707626</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.16825186205923</v>
+        <v>11.06465550291563</v>
       </c>
       <c r="O10">
-        <v>29.36060727559305</v>
+        <v>17.91507079059406</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.99721631324878</v>
+        <v>28.05777281484684</v>
       </c>
       <c r="C11">
-        <v>18.18187398135448</v>
+        <v>13.46078909524704</v>
       </c>
       <c r="D11">
-        <v>3.487518428121553</v>
+        <v>4.334517109537062</v>
       </c>
       <c r="E11">
-        <v>5.979304513952108</v>
+        <v>7.044971449597223</v>
       </c>
       <c r="F11">
-        <v>39.57530169239718</v>
+        <v>24.4197485722207</v>
       </c>
       <c r="G11">
-        <v>2.024512250600695</v>
+        <v>2.043099158902737</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.8138836281128</v>
+        <v>8.378999504384716</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.93960929037916</v>
+        <v>10.93945429234611</v>
       </c>
       <c r="O11">
-        <v>30.20150577785071</v>
+        <v>18.26884205365873</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.4698506040122</v>
+        <v>28.42011178647749</v>
       </c>
       <c r="C12">
-        <v>18.41673045297665</v>
+        <v>13.57988976798719</v>
       </c>
       <c r="D12">
-        <v>3.454823405550352</v>
+        <v>4.356497926287402</v>
       </c>
       <c r="E12">
-        <v>5.974984179899804</v>
+        <v>7.050882608479394</v>
       </c>
       <c r="F12">
-        <v>40.03729290537946</v>
+        <v>24.65917408564208</v>
       </c>
       <c r="G12">
-        <v>2.021401584855481</v>
+        <v>2.041437359805064</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.898680391073315</v>
+        <v>8.455070314937709</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.85306488880723</v>
+        <v>10.89258022340151</v>
       </c>
       <c r="O12">
-        <v>30.52197004261811</v>
+        <v>18.40476666772541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.36837398714158</v>
+        <v>28.34241034718016</v>
       </c>
       <c r="C13">
-        <v>18.36630384476524</v>
+        <v>13.55432235537285</v>
       </c>
       <c r="D13">
-        <v>3.461865455976396</v>
+        <v>4.351774149494555</v>
       </c>
       <c r="E13">
-        <v>5.975887246324953</v>
+        <v>7.049562347738722</v>
       </c>
       <c r="F13">
-        <v>39.93776512294722</v>
+        <v>24.60759461151554</v>
       </c>
       <c r="G13">
-        <v>2.022071478426504</v>
+        <v>2.041794753688477</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.880419245352051</v>
+        <v>8.438709513114068</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.87170332284181</v>
+        <v>10.9026513370376</v>
       </c>
       <c r="O13">
-        <v>30.45285930669541</v>
+        <v>18.37540614348119</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.03624206633991</v>
+        <v>28.08773365927701</v>
       </c>
       <c r="C14">
-        <v>18.20126539101146</v>
+        <v>13.47062495339221</v>
       </c>
       <c r="D14">
-        <v>3.484828823653341</v>
+        <v>4.336330058475749</v>
       </c>
       <c r="E14">
-        <v>5.978936795986067</v>
+        <v>7.045436577535691</v>
       </c>
       <c r="F14">
-        <v>39.61329692134964</v>
+        <v>24.43943938897961</v>
       </c>
       <c r="G14">
-        <v>2.024256307127982</v>
+        <v>2.042962212787675</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.82086053892718</v>
+        <v>8.385267939862736</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.93248891512393</v>
+        <v>10.93558711134151</v>
       </c>
       <c r="O14">
-        <v>30.22782890183661</v>
+        <v>18.2799855376314</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.83187729984803</v>
+        <v>27.9307548234023</v>
       </c>
       <c r="C15">
-        <v>18.09972079826219</v>
+        <v>13.41911528138439</v>
       </c>
       <c r="D15">
-        <v>3.498893193209295</v>
+        <v>4.326840468441245</v>
       </c>
       <c r="E15">
-        <v>5.980884211029965</v>
+        <v>7.043046695219202</v>
       </c>
       <c r="F15">
-        <v>39.41463406121682</v>
+        <v>24.33648484560647</v>
       </c>
       <c r="G15">
-        <v>2.025594791939112</v>
+        <v>2.043678811223616</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.784374921987929</v>
+        <v>8.352468449456586</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.96972447534295</v>
+        <v>10.95583146619193</v>
       </c>
       <c r="O15">
-        <v>30.09026072575694</v>
+        <v>18.22179202131621</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.64632229482047</v>
+        <v>27.0160409037248</v>
       </c>
       <c r="C16">
-        <v>17.51072654202655</v>
+        <v>13.12024321438821</v>
       </c>
       <c r="D16">
-        <v>3.579486770872303</v>
+        <v>4.272013556781125</v>
       </c>
       <c r="E16">
-        <v>5.993230694797342</v>
+        <v>7.031415788218618</v>
       </c>
       <c r="F16">
-        <v>38.27731375658537</v>
+        <v>23.74727220897664</v>
       </c>
       <c r="G16">
-        <v>2.033272020330286</v>
+        <v>2.047809114033613</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.575220024876144</v>
+        <v>8.163541347850725</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.18320357327845</v>
+        <v>11.07291226797488</v>
       </c>
       <c r="O16">
-        <v>29.30592961018131</v>
+        <v>17.89222662848594</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.90588880853901</v>
+        <v>26.44130552691635</v>
       </c>
       <c r="C17">
-        <v>17.14294526443794</v>
+        <v>12.93363400455424</v>
       </c>
       <c r="D17">
-        <v>3.628944327570523</v>
+        <v>4.237990519592243</v>
       </c>
       <c r="E17">
-        <v>6.001830712087084</v>
+        <v>7.026080053615519</v>
       </c>
       <c r="F17">
-        <v>37.58049897025573</v>
+        <v>23.3866024795068</v>
       </c>
       <c r="G17">
-        <v>2.037991689566731</v>
+        <v>2.05036501459483</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.446845386214465</v>
+        <v>8.046813082233035</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.31431351577864</v>
+        <v>11.14568320963501</v>
       </c>
       <c r="O17">
-        <v>28.82825114973447</v>
+        <v>17.69356798161472</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.47508506790523</v>
+        <v>26.1057059350941</v>
       </c>
       <c r="C18">
-        <v>16.92898662827109</v>
+        <v>12.82511712505801</v>
       </c>
       <c r="D18">
-        <v>3.657404710620825</v>
+        <v>4.218282438027822</v>
       </c>
       <c r="E18">
-        <v>6.007141630442836</v>
+        <v>7.023655461513484</v>
       </c>
       <c r="F18">
-        <v>37.18000411160781</v>
+        <v>23.17948903713129</v>
       </c>
       <c r="G18">
-        <v>2.040711396340246</v>
+        <v>2.051843562031407</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.372985101909951</v>
+        <v>7.97938485061418</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.38980228616686</v>
+        <v>11.18788388207393</v>
       </c>
       <c r="O18">
-        <v>28.55475218961218</v>
+        <v>17.58060761805227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.32836733229064</v>
+        <v>25.99121116241549</v>
       </c>
       <c r="C19">
-        <v>16.85612375650197</v>
+        <v>12.78817324824352</v>
       </c>
       <c r="D19">
-        <v>3.66704401574388</v>
+        <v>4.211586134578913</v>
       </c>
       <c r="E19">
-        <v>6.009001256411953</v>
+        <v>7.022943610319469</v>
       </c>
       <c r="F19">
-        <v>37.04445199502429</v>
+        <v>23.10942578072109</v>
       </c>
       <c r="G19">
-        <v>2.041633243638357</v>
+        <v>2.052345657540212</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.347973700617141</v>
+        <v>7.956506657223909</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.41537704518606</v>
+        <v>11.20223128263095</v>
       </c>
       <c r="O19">
-        <v>28.4623625135243</v>
+        <v>17.54258589155379</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.98521688130226</v>
+        <v>26.50300661886151</v>
       </c>
       <c r="C20">
-        <v>17.18234566294526</v>
+        <v>12.95362177320977</v>
       </c>
       <c r="D20">
-        <v>3.623678246643444</v>
+        <v>4.241626797373998</v>
       </c>
       <c r="E20">
-        <v>6.000877234167831</v>
+        <v>7.026580980206666</v>
       </c>
       <c r="F20">
-        <v>37.65464504876601</v>
+        <v>23.42496281747221</v>
       </c>
       <c r="G20">
-        <v>2.037488778254606</v>
+        <v>2.050092066486854</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.460513483772074</v>
+        <v>8.059269293527917</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.30034911157433</v>
+        <v>11.13790088090274</v>
       </c>
       <c r="O20">
-        <v>28.87897100458435</v>
+        <v>17.71458091879234</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.13398927243138</v>
+        <v>28.16274283241885</v>
       </c>
       <c r="C21">
-        <v>18.24983543469293</v>
+        <v>13.49525952794897</v>
       </c>
       <c r="D21">
-        <v>3.478084248624</v>
+        <v>4.340872558633131</v>
       </c>
       <c r="E21">
-        <v>5.978024428926531</v>
+        <v>7.046619714505501</v>
       </c>
       <c r="F21">
-        <v>39.70858336086112</v>
+        <v>24.48882138137979</v>
       </c>
       <c r="G21">
-        <v>2.023614534290014</v>
+        <v>2.042618992016686</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.838355225782218</v>
+        <v>8.400978635097371</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.9146343026196</v>
+        <v>10.9258984172525</v>
       </c>
       <c r="O21">
-        <v>30.29386933211987</v>
+        <v>18.30795991830903</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.49668877201715</v>
+        <v>29.20343315127735</v>
       </c>
       <c r="C22">
-        <v>18.92705494497819</v>
+        <v>13.83842902756297</v>
       </c>
       <c r="D22">
-        <v>3.382890486502303</v>
+        <v>4.404418998802327</v>
       </c>
       <c r="E22">
-        <v>5.966611489592257</v>
+        <v>7.065814526591725</v>
       </c>
       <c r="F22">
-        <v>41.0545666709546</v>
+        <v>25.18625516795802</v>
       </c>
       <c r="G22">
-        <v>2.014560425431002</v>
+        <v>2.037802797466447</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.085109506578966</v>
+        <v>8.621435189967759</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.66272946290212</v>
+        <v>10.79047848303009</v>
       </c>
       <c r="O22">
-        <v>31.23055079218717</v>
+        <v>18.70717743604585</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.77308459541556</v>
+        <v>28.65199123977541</v>
       </c>
       <c r="C23">
-        <v>18.56742228283147</v>
+        <v>13.6562747019804</v>
       </c>
       <c r="D23">
-        <v>3.43370819963397</v>
+        <v>4.370627157171104</v>
       </c>
       <c r="E23">
-        <v>5.972366140097162</v>
+        <v>7.054994384214401</v>
       </c>
       <c r="F23">
-        <v>40.33578856648376</v>
+        <v>24.81386013837037</v>
       </c>
       <c r="G23">
-        <v>2.019393194860859</v>
+        <v>2.040367456226547</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.953425120656442</v>
+        <v>8.504048456569754</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.79718459141415</v>
+        <v>10.86246392015745</v>
       </c>
       <c r="O23">
-        <v>30.72947541083734</v>
+        <v>18.49307161498428</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.94936862648095</v>
+        <v>26.47512768692848</v>
       </c>
       <c r="C24">
-        <v>17.16454059203022</v>
+        <v>12.94458913943485</v>
       </c>
       <c r="D24">
-        <v>3.626058957217072</v>
+        <v>4.239983295597833</v>
       </c>
       <c r="E24">
-        <v>6.001307162450948</v>
+        <v>7.026352512502286</v>
       </c>
       <c r="F24">
-        <v>37.62112326194534</v>
+        <v>23.40761934982723</v>
       </c>
       <c r="G24">
-        <v>2.037716124481647</v>
+        <v>2.050215437819748</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.454334310970099</v>
+        <v>8.053638832357594</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.30666206456269</v>
+        <v>11.14141813956709</v>
       </c>
       <c r="O24">
-        <v>28.85603706213703</v>
+        <v>17.70507707059517</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.71427758128434</v>
+        <v>23.93444235283704</v>
       </c>
       <c r="C25">
-        <v>15.55832212129299</v>
+        <v>12.13191145390186</v>
       </c>
       <c r="D25">
-        <v>3.834171068867879</v>
+        <v>4.093807415806835</v>
       </c>
       <c r="E25">
-        <v>6.046329739022807</v>
+        <v>7.019883465306312</v>
       </c>
       <c r="F25">
-        <v>34.7045992135395</v>
+        <v>21.90431199746663</v>
       </c>
       <c r="G25">
-        <v>2.057688353809898</v>
+        <v>2.061165304966504</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.915264558406785</v>
+        <v>7.557005992703044</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.85945808712478</v>
+        <v>11.4554827594494</v>
       </c>
       <c r="O25">
-        <v>26.88314041863081</v>
+        <v>16.90504479381528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.89412238184926</v>
+        <v>20.08529246034483</v>
       </c>
       <c r="C2">
-        <v>11.49686224495789</v>
+        <v>12.59277672475795</v>
       </c>
       <c r="D2">
-        <v>3.98212321737497</v>
+        <v>4.549645745458079</v>
       </c>
       <c r="E2">
-        <v>7.034194120250254</v>
+        <v>7.502165841604218</v>
       </c>
       <c r="F2">
-        <v>20.81500362395981</v>
+        <v>17.01462237140365</v>
       </c>
       <c r="G2">
-        <v>2.069546857272832</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>21.02852203369548</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.082687352636404</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.126158031115015</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.74557222376203</v>
       </c>
       <c r="L2">
-        <v>7.184128539079144</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.69788917919817</v>
+        <v>7.112696612738595</v>
       </c>
       <c r="O2">
-        <v>16.35989236196269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.14879344965899</v>
+      </c>
+      <c r="Q2">
+        <v>13.27752263483561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.40365515716801</v>
+        <v>18.75814604188545</v>
       </c>
       <c r="C3">
-        <v>11.04502035500594</v>
+        <v>12.14925990339527</v>
       </c>
       <c r="D3">
-        <v>3.904170323522174</v>
+        <v>4.360605994811354</v>
       </c>
       <c r="E3">
-        <v>7.054831493805463</v>
+        <v>7.512686957524473</v>
       </c>
       <c r="F3">
-        <v>20.0914831364878</v>
+        <v>16.50101610563997</v>
       </c>
       <c r="G3">
-        <v>2.075443495229644</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.28884498118977</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.922972383671289</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.107899952737293</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.83610847000716</v>
       </c>
       <c r="L3">
-        <v>6.92827810384834</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.86910640209475</v>
+        <v>6.855381702031571</v>
       </c>
       <c r="O3">
-        <v>16.0182191044185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.19095288131338</v>
+      </c>
+      <c r="Q3">
+        <v>13.09663523442373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.43475872647172</v>
+        <v>17.89105638610336</v>
       </c>
       <c r="C4">
-        <v>10.75760758752879</v>
+        <v>11.86965522774316</v>
       </c>
       <c r="D4">
-        <v>3.855288922466746</v>
+        <v>4.240066220323126</v>
       </c>
       <c r="E4">
-        <v>7.072585333772051</v>
+        <v>7.522536587977657</v>
       </c>
       <c r="F4">
-        <v>19.65592866056464</v>
+        <v>16.18833720167681</v>
       </c>
       <c r="G4">
-        <v>2.07917606747004</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>19.83612245936472</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.82186156683945</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.100627608353474</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.89827868621918</v>
       </c>
       <c r="L4">
-        <v>6.770172387530366</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.97765847268666</v>
+        <v>6.695945029063221</v>
       </c>
       <c r="O4">
-        <v>15.82219719566712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.22019775839294</v>
+      </c>
+      <c r="Q4">
+        <v>12.99243982328107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.02632516473962</v>
+        <v>17.51976851648504</v>
       </c>
       <c r="C5">
-        <v>10.63808269789835</v>
+        <v>11.76013562413231</v>
       </c>
       <c r="D5">
-        <v>3.835129279665808</v>
+        <v>4.191021695441162</v>
       </c>
       <c r="E5">
-        <v>7.081052387884264</v>
+        <v>7.525762833499481</v>
       </c>
       <c r="F5">
-        <v>19.48085193187442</v>
+        <v>16.05588303475736</v>
       </c>
       <c r="G5">
-        <v>2.080726019052707</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>19.64139689315017</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.780380630065402</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.096942119296397</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.92100928590539</v>
       </c>
       <c r="L5">
-        <v>6.705579287195691</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.02275633114964</v>
+        <v>6.631425452186643</v>
       </c>
       <c r="O5">
-        <v>15.74577879163595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.2339976400403</v>
+      </c>
+      <c r="Q5">
+        <v>12.94730751971295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.9576811691319</v>
+        <v>17.45150343024405</v>
       </c>
       <c r="C6">
-        <v>10.61809406075977</v>
+        <v>11.74939730336687</v>
       </c>
       <c r="D6">
-        <v>3.831767766546687</v>
+        <v>4.184238723639065</v>
       </c>
       <c r="E6">
-        <v>7.082531434841336</v>
+        <v>7.524367564356178</v>
       </c>
       <c r="F6">
-        <v>19.45193328737468</v>
+        <v>16.02673473848619</v>
       </c>
       <c r="G6">
-        <v>2.080985153458071</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>19.59579092404343</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.774253273265538</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.094322038293956</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.91974784712717</v>
       </c>
       <c r="L6">
-        <v>6.69484656837702</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.03029690708969</v>
+        <v>6.621572742254592</v>
       </c>
       <c r="O6">
-        <v>15.73329843070093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.23763721049194</v>
+      </c>
+      <c r="Q6">
+        <v>12.93453292809378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.42930562913705</v>
+        <v>17.87060464024358</v>
       </c>
       <c r="C7">
-        <v>10.75600520465984</v>
+        <v>11.88861894881141</v>
       </c>
       <c r="D7">
-        <v>3.855017992941127</v>
+        <v>4.243257270667809</v>
       </c>
       <c r="E7">
-        <v>7.072694594138512</v>
+        <v>7.517168352314801</v>
       </c>
       <c r="F7">
-        <v>19.65355742661057</v>
+        <v>16.16703854655591</v>
       </c>
       <c r="G7">
-        <v>2.079196852708349</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>19.79752300405271</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.823155211890534</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.094938422639558</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.88454463099908</v>
       </c>
       <c r="L7">
-        <v>6.76930179959454</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.97826318586784</v>
+        <v>6.697428351987655</v>
       </c>
       <c r="O7">
-        <v>15.82115258141505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.22399241072106</v>
+      </c>
+      <c r="Q7">
+        <v>12.97717645712932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.39131119310873</v>
+        <v>19.61958110658899</v>
       </c>
       <c r="C8">
-        <v>11.34319847990925</v>
+        <v>12.4676118603365</v>
       </c>
       <c r="D8">
-        <v>3.955465643772565</v>
+        <v>4.490299658548145</v>
       </c>
       <c r="E8">
-        <v>7.040227254924712</v>
+        <v>7.497931977493552</v>
       </c>
       <c r="F8">
-        <v>20.56386559485043</v>
+        <v>16.81218034644508</v>
       </c>
       <c r="G8">
-        <v>2.07155722163253</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>20.72771153466901</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.030159190958275</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.111610960408756</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.75673369557993</v>
       </c>
       <c r="L8">
-        <v>7.096173488977938</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.75621455280747</v>
+        <v>7.027295959518838</v>
       </c>
       <c r="O8">
-        <v>16.23923001743621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.16768111789114</v>
+      </c>
+      <c r="Q8">
+        <v>13.19466230491817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.81636543032519</v>
+        <v>22.66217401746912</v>
       </c>
       <c r="C9">
-        <v>12.41151952566171</v>
+        <v>13.50673476748142</v>
       </c>
       <c r="D9">
-        <v>4.14371012500299</v>
+        <v>4.931483683369927</v>
       </c>
       <c r="E9">
-        <v>7.018970945441723</v>
+        <v>7.497679211095767</v>
       </c>
       <c r="F9">
-        <v>22.40842242983617</v>
+        <v>18.12402143768258</v>
       </c>
       <c r="G9">
-        <v>2.057429648049061</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>22.61235238557235</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.410424403051191</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.186610455914682</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.58651411753605</v>
       </c>
       <c r="L9">
-        <v>7.725574912830094</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.34794850622717</v>
+        <v>7.654760761566099</v>
       </c>
       <c r="O9">
-        <v>17.16777974661625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.07786261015245</v>
+      </c>
+      <c r="Q9">
+        <v>13.70101688061941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.08094344152789</v>
+        <v>24.64395099351861</v>
       </c>
       <c r="C10">
-        <v>13.14137509648309</v>
+        <v>14.23808651915263</v>
       </c>
       <c r="D10">
-        <v>4.275876714397206</v>
+        <v>5.233475140057783</v>
       </c>
       <c r="E10">
-        <v>7.032113171850601</v>
+        <v>7.513011882896286</v>
       </c>
       <c r="F10">
-        <v>23.78846921568389</v>
+        <v>19.07777272429223</v>
       </c>
       <c r="G10">
-        <v>2.047518590025995</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>23.96721935526039</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.67723927269719</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.260005515854719</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.49224666448058</v>
       </c>
       <c r="L10">
-        <v>8.176820548707626</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.06465550291563</v>
+        <v>8.102612490085722</v>
       </c>
       <c r="O10">
-        <v>17.91507079059406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.03216453522539</v>
+      </c>
+      <c r="Q10">
+        <v>14.09851499605235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.05777281484684</v>
+        <v>25.47441865056121</v>
       </c>
       <c r="C11">
-        <v>13.46078909524704</v>
+        <v>14.58971977769582</v>
       </c>
       <c r="D11">
-        <v>4.334517109537062</v>
+        <v>5.370640270127253</v>
       </c>
       <c r="E11">
-        <v>7.044971449597223</v>
+        <v>7.515471826687244</v>
       </c>
       <c r="F11">
-        <v>24.4197485722207</v>
+        <v>19.48315807797612</v>
       </c>
       <c r="G11">
-        <v>2.043099158902737</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>24.53072529974295</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.798966869721847</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.289346097642351</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.43526115340412</v>
       </c>
       <c r="L11">
-        <v>8.378999504384716</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.93945429234611</v>
+        <v>8.305499801027684</v>
       </c>
       <c r="O11">
-        <v>18.26884205365873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.02289523726915</v>
+      </c>
+      <c r="Q11">
+        <v>14.26450185302177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.42011178647749</v>
+        <v>25.79143001956473</v>
       </c>
       <c r="C12">
-        <v>13.57988976798719</v>
+        <v>14.70591159563036</v>
       </c>
       <c r="D12">
-        <v>4.356497926287402</v>
+        <v>5.418959348998254</v>
       </c>
       <c r="E12">
-        <v>7.050882608479394</v>
+        <v>7.521677253500492</v>
       </c>
       <c r="F12">
-        <v>24.65917408564208</v>
+        <v>19.65070879473135</v>
       </c>
       <c r="G12">
-        <v>2.041437359805064</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>24.76917809409337</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.843088036300114</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.305930943966114</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.42744149590802</v>
       </c>
       <c r="L12">
-        <v>8.455070314937709</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.89258022340151</v>
+        <v>8.380044442908673</v>
       </c>
       <c r="O12">
-        <v>18.40476666772541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.01625705913668</v>
+      </c>
+      <c r="Q12">
+        <v>14.340024007599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.34241034718016</v>
+        <v>25.72545754503733</v>
       </c>
       <c r="C13">
-        <v>13.55432235537285</v>
+        <v>14.67787902064199</v>
       </c>
       <c r="D13">
-        <v>4.351774149494555</v>
+        <v>5.408030108396721</v>
       </c>
       <c r="E13">
-        <v>7.049562347738722</v>
+        <v>7.521245527374103</v>
       </c>
       <c r="F13">
-        <v>24.60759461151554</v>
+        <v>19.61749158384826</v>
       </c>
       <c r="G13">
-        <v>2.041794753688477</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>24.7229756114323</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.83322903499996</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.30327867856527</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.43154882311276</v>
       </c>
       <c r="L13">
-        <v>8.438709513114068</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.9026513370376</v>
+        <v>8.363690497528156</v>
       </c>
       <c r="O13">
-        <v>18.37540614348119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.01688661807222</v>
+      </c>
+      <c r="Q13">
+        <v>14.32604079123535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.08773365927701</v>
+        <v>25.50149244318341</v>
       </c>
       <c r="C14">
-        <v>13.47062495339221</v>
+        <v>14.59799608190593</v>
       </c>
       <c r="D14">
-        <v>4.336330058475749</v>
+        <v>5.374392983319296</v>
       </c>
       <c r="E14">
-        <v>7.045436577535691</v>
+        <v>7.516366248844268</v>
       </c>
       <c r="F14">
-        <v>24.43943938897961</v>
+        <v>19.49816824959385</v>
       </c>
       <c r="G14">
-        <v>2.042962212787675</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>24.5525469702282</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.802439247006707</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.291101013372742</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.43564544020512</v>
       </c>
       <c r="L14">
-        <v>8.385267939862736</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.93558711134151</v>
+        <v>8.311505144773932</v>
       </c>
       <c r="O14">
-        <v>18.2799855376314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.02200965461629</v>
+      </c>
+      <c r="Q14">
+        <v>14.2716869319656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.9307548234023</v>
+        <v>25.35939251433026</v>
       </c>
       <c r="C15">
-        <v>13.41911528138439</v>
+        <v>14.55498841240949</v>
       </c>
       <c r="D15">
-        <v>4.326840468441245</v>
+        <v>5.354797154644902</v>
       </c>
       <c r="E15">
-        <v>7.043046695219202</v>
+        <v>7.511620488776504</v>
       </c>
       <c r="F15">
-        <v>24.33648484560647</v>
+        <v>19.41934992634202</v>
       </c>
       <c r="G15">
-        <v>2.043678811223616</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>24.43783773009794</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.784353214337117</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.281855980974388</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.43344619269768</v>
       </c>
       <c r="L15">
-        <v>8.352468449456586</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.95583146619193</v>
+        <v>8.280112263398575</v>
       </c>
       <c r="O15">
-        <v>18.22179202131621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.02674041201747</v>
+      </c>
+      <c r="Q15">
+        <v>14.23390846132574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.0160409037248</v>
+        <v>24.55470639062575</v>
       </c>
       <c r="C16">
-        <v>13.12024321438821</v>
+        <v>14.26703724467313</v>
       </c>
       <c r="D16">
-        <v>4.272013556781125</v>
+        <v>5.233907216828699</v>
       </c>
       <c r="E16">
-        <v>7.031415788218618</v>
+        <v>7.497407299910725</v>
       </c>
       <c r="F16">
-        <v>23.74727220897664</v>
+        <v>19.00267481896732</v>
       </c>
       <c r="G16">
-        <v>2.047809114033613</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>23.84285528922982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.675140065131979</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.242281520588877</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.45492032597166</v>
       </c>
       <c r="L16">
-        <v>8.163541347850725</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.07291226797488</v>
+        <v>8.094882542343237</v>
       </c>
       <c r="O16">
-        <v>17.89222662848594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.04540889819125</v>
+      </c>
+      <c r="Q16">
+        <v>14.04857958238658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.44130552691635</v>
+        <v>24.04750979215895</v>
       </c>
       <c r="C17">
-        <v>12.93363400455424</v>
+        <v>14.08782669930775</v>
       </c>
       <c r="D17">
-        <v>4.237990519592243</v>
+        <v>5.158344818919837</v>
       </c>
       <c r="E17">
-        <v>7.026080053615519</v>
+        <v>7.489843463844072</v>
       </c>
       <c r="F17">
-        <v>23.3866024795068</v>
+        <v>18.74647474854408</v>
       </c>
       <c r="G17">
-        <v>2.05036501459483</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>23.47634613221797</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.607629704524106</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.21931646201419</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.47069535817683</v>
       </c>
       <c r="L17">
-        <v>8.046813082233035</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.14568320963501</v>
+        <v>7.98021402545408</v>
       </c>
       <c r="O17">
-        <v>17.69356798161472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.05788786083492</v>
+      </c>
+      <c r="Q17">
+        <v>13.93670826617604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.1057059350941</v>
+        <v>23.76137200377249</v>
       </c>
       <c r="C18">
-        <v>12.82511712505801</v>
+        <v>13.96773272763401</v>
       </c>
       <c r="D18">
-        <v>4.218282438027822</v>
+        <v>5.11143464877136</v>
       </c>
       <c r="E18">
-        <v>7.023655461513484</v>
+        <v>7.490619385412257</v>
       </c>
       <c r="F18">
-        <v>23.17948903713129</v>
+        <v>18.61395946269391</v>
       </c>
       <c r="G18">
-        <v>2.051843562031407</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>23.29215287646467</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.566007712546609</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.211422869396081</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.49315122029592</v>
       </c>
       <c r="L18">
-        <v>7.97938485061418</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.18788388207393</v>
+        <v>7.912154483132161</v>
       </c>
       <c r="O18">
-        <v>17.58060761805227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.06168215778004</v>
+      </c>
+      <c r="Q18">
+        <v>13.88506682975602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.99121116241549</v>
+        <v>23.65548306333327</v>
       </c>
       <c r="C19">
-        <v>12.78817324824352</v>
+        <v>13.93930374143094</v>
       </c>
       <c r="D19">
-        <v>4.211586134578913</v>
+        <v>5.097727711859263</v>
       </c>
       <c r="E19">
-        <v>7.022943610319469</v>
+        <v>7.487321582898297</v>
       </c>
       <c r="F19">
-        <v>23.10942578072109</v>
+        <v>18.55750510474666</v>
       </c>
       <c r="G19">
-        <v>2.052345657540212</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>23.20883937759333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.55381381820685</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.205099796922056</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.4913021672019</v>
       </c>
       <c r="L19">
-        <v>7.956506657223909</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.20223128263095</v>
+        <v>7.89039210647343</v>
       </c>
       <c r="O19">
-        <v>17.54258589155379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.06592618038393</v>
+      </c>
+      <c r="Q19">
+        <v>13.85843249550699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.50300661886151</v>
+        <v>24.10283942608774</v>
       </c>
       <c r="C20">
-        <v>12.95362177320977</v>
+        <v>14.10574599344972</v>
       </c>
       <c r="D20">
-        <v>4.241626797373998</v>
+        <v>5.16621263346893</v>
       </c>
       <c r="E20">
-        <v>7.026580980206666</v>
+        <v>7.490974474194684</v>
       </c>
       <c r="F20">
-        <v>23.42496281747221</v>
+        <v>18.77493503000067</v>
       </c>
       <c r="G20">
-        <v>2.050092066486854</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>23.51752180958552</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.614628050076227</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.222090833515859</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.46989715292696</v>
       </c>
       <c r="L20">
-        <v>8.059269293527917</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.13790088090274</v>
+        <v>7.992323151988</v>
       </c>
       <c r="O20">
-        <v>17.71458091879234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.05622460000362</v>
+      </c>
+      <c r="Q20">
+        <v>13.94948635217872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.16274283241885</v>
+        <v>25.5564079397147</v>
       </c>
       <c r="C21">
-        <v>13.49525952794897</v>
+        <v>14.63878128754297</v>
       </c>
       <c r="D21">
-        <v>4.340872558633131</v>
+        <v>5.387434215106052</v>
       </c>
       <c r="E21">
-        <v>7.046619714505501</v>
+        <v>7.512549284408164</v>
       </c>
       <c r="F21">
-        <v>24.48882138137979</v>
+        <v>19.51721391109839</v>
       </c>
       <c r="G21">
-        <v>2.042618992016686</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>24.57389307627788</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.813830996185212</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.289315750993705</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.4204611878045</v>
       </c>
       <c r="L21">
-        <v>8.400978635097371</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.9258984172525</v>
+        <v>8.328693774310873</v>
       </c>
       <c r="O21">
-        <v>18.30795991830903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.02480841019747</v>
+      </c>
+      <c r="Q21">
+        <v>14.27456722286342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.20343315127735</v>
+        <v>26.476361468082</v>
       </c>
       <c r="C22">
-        <v>13.83842902756297</v>
+        <v>14.95668060493743</v>
       </c>
       <c r="D22">
-        <v>4.404418998802327</v>
+        <v>5.523396782700351</v>
       </c>
       <c r="E22">
-        <v>7.065814526591725</v>
+        <v>7.537156599034213</v>
       </c>
       <c r="F22">
-        <v>25.18625516795802</v>
+        <v>20.0202380776884</v>
       </c>
       <c r="G22">
-        <v>2.037802797466447</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>25.29515153333698</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.939295990237734</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.344407033002325</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.41471321336211</v>
       </c>
       <c r="L22">
-        <v>8.621435189967759</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.79047848303009</v>
+        <v>8.542593967054019</v>
       </c>
       <c r="O22">
-        <v>18.70717743604585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.0022462843104</v>
+      </c>
+      <c r="Q22">
+        <v>14.50944658599797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.65199123977541</v>
+        <v>26.00259714105574</v>
       </c>
       <c r="C23">
-        <v>13.6562747019804</v>
+        <v>14.76710628384111</v>
       </c>
       <c r="D23">
-        <v>4.370627157171104</v>
+        <v>5.447500591676097</v>
       </c>
       <c r="E23">
-        <v>7.054994384214401</v>
+        <v>7.5299661327418</v>
       </c>
       <c r="F23">
-        <v>24.81386013837037</v>
+        <v>19.77119135468498</v>
       </c>
       <c r="G23">
-        <v>2.040367456226547</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>24.94513061617478</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.870012826046005</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.321024159511776</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.43375640006812</v>
       </c>
       <c r="L23">
-        <v>8.504048456569754</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.86246392015745</v>
+        <v>8.426573780879689</v>
       </c>
       <c r="O23">
-        <v>18.49307161498428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.00873615397098</v>
+      </c>
+      <c r="Q23">
+        <v>14.39923050869976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.47512768692848</v>
+        <v>24.09998686764589</v>
       </c>
       <c r="C24">
-        <v>12.94458913943485</v>
+        <v>14.06385084100957</v>
       </c>
       <c r="D24">
-        <v>4.239983295597833</v>
+        <v>5.156486910692068</v>
       </c>
       <c r="E24">
-        <v>7.026352512502286</v>
+        <v>7.500423838246611</v>
       </c>
       <c r="F24">
-        <v>23.40761934982723</v>
+        <v>18.79359235318425</v>
       </c>
       <c r="G24">
-        <v>2.050215437819748</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>23.55576030602348</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.60682422276891</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.231059613417344</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.49664789227575</v>
       </c>
       <c r="L24">
-        <v>8.053638832357594</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.14141813956709</v>
+        <v>7.983196523186953</v>
       </c>
       <c r="O24">
-        <v>17.70507707059517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.04899747167597</v>
+      </c>
+      <c r="Q24">
+        <v>13.96904004887154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.93444235283704</v>
+        <v>21.85948219157819</v>
       </c>
       <c r="C25">
-        <v>12.13191145390186</v>
+        <v>13.26682483192626</v>
       </c>
       <c r="D25">
-        <v>4.093807415806835</v>
+        <v>4.822532215938952</v>
       </c>
       <c r="E25">
-        <v>7.019883465306312</v>
+        <v>7.484915187248434</v>
       </c>
       <c r="F25">
-        <v>21.90431199746663</v>
+        <v>17.73651962634904</v>
       </c>
       <c r="G25">
-        <v>2.061165304966504</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>22.04555179302886</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.313281144871949</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.152678382520623</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.6006437866575</v>
       </c>
       <c r="L25">
-        <v>7.557005992703044</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.4554827594494</v>
+        <v>7.49096812181701</v>
       </c>
       <c r="O25">
-        <v>16.90504479381528</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.10645988704086</v>
+      </c>
+      <c r="Q25">
+        <v>13.53295590073098</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.08529246034483</v>
+        <v>19.85896703047256</v>
       </c>
       <c r="C2">
-        <v>12.59277672475795</v>
+        <v>12.7391676644351</v>
       </c>
       <c r="D2">
-        <v>4.549645745458079</v>
+        <v>4.618250631553892</v>
       </c>
       <c r="E2">
-        <v>7.502165841604218</v>
+        <v>7.334968216348904</v>
       </c>
       <c r="F2">
-        <v>17.01462237140365</v>
+        <v>16.72571972096765</v>
       </c>
       <c r="G2">
-        <v>21.02852203369548</v>
+        <v>19.84888241293428</v>
       </c>
       <c r="I2">
-        <v>3.082687352636404</v>
+        <v>3.084013765013998</v>
       </c>
       <c r="J2">
-        <v>8.126158031115015</v>
+        <v>8.678190878606488</v>
       </c>
       <c r="K2">
-        <v>12.74557222376203</v>
+        <v>12.47280766798275</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.32313239994088</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.177556182767679</v>
       </c>
       <c r="N2">
-        <v>7.112696612738595</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.14879344965899</v>
+        <v>7.161245242939374</v>
       </c>
       <c r="Q2">
-        <v>13.27752263483561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.20265226483762</v>
+      </c>
+      <c r="S2">
+        <v>13.06569732241197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.75814604188545</v>
+        <v>18.57788319038797</v>
       </c>
       <c r="C3">
-        <v>12.14925990339527</v>
+        <v>12.20720077688973</v>
       </c>
       <c r="D3">
-        <v>4.360605994811354</v>
+        <v>4.412651781929886</v>
       </c>
       <c r="E3">
-        <v>7.512686957524473</v>
+        <v>7.355243342880644</v>
       </c>
       <c r="F3">
-        <v>16.50101610563997</v>
+        <v>16.25657123473919</v>
       </c>
       <c r="G3">
-        <v>20.28884498118977</v>
+        <v>19.1621360015605</v>
       </c>
       <c r="I3">
-        <v>2.922972383671289</v>
+        <v>2.941467722542305</v>
       </c>
       <c r="J3">
-        <v>8.107899952737293</v>
+        <v>8.644601544404711</v>
       </c>
       <c r="K3">
-        <v>12.83610847000716</v>
+        <v>12.58289555277984</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.48834261583793</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.174248093903053</v>
       </c>
       <c r="N3">
-        <v>6.855381702031571</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.19095288131338</v>
+        <v>6.899016773708837</v>
       </c>
       <c r="Q3">
-        <v>13.09663523442373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.21807729503188</v>
+      </c>
+      <c r="S3">
+        <v>12.91476314390944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.89105638610336</v>
+        <v>17.74063767884115</v>
       </c>
       <c r="C4">
-        <v>11.86965522774316</v>
+        <v>11.8712190817911</v>
       </c>
       <c r="D4">
-        <v>4.240066220323126</v>
+        <v>4.281458998495275</v>
       </c>
       <c r="E4">
-        <v>7.522536587977657</v>
+        <v>7.370607842603954</v>
       </c>
       <c r="F4">
-        <v>16.18833720167681</v>
+        <v>15.97023241587106</v>
       </c>
       <c r="G4">
-        <v>19.83612245936472</v>
+        <v>18.74303453968935</v>
       </c>
       <c r="I4">
-        <v>2.82186156683945</v>
+        <v>2.851331492134956</v>
       </c>
       <c r="J4">
-        <v>8.100627608353474</v>
+        <v>8.625520617862806</v>
       </c>
       <c r="K4">
-        <v>12.89827868621918</v>
+        <v>12.65535701729365</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.59237379326352</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.197927851391341</v>
       </c>
       <c r="N4">
-        <v>6.695945029063221</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.22019775839294</v>
+        <v>6.73645901880044</v>
       </c>
       <c r="Q4">
-        <v>12.99243982328107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.23118165685554</v>
+      </c>
+      <c r="S4">
+        <v>12.82761634275276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.51976851648504</v>
+        <v>17.38189032279478</v>
       </c>
       <c r="C5">
-        <v>11.76013562413231</v>
+        <v>11.73865011543089</v>
       </c>
       <c r="D5">
-        <v>4.191021695441162</v>
+        <v>4.227976244818239</v>
       </c>
       <c r="E5">
-        <v>7.525762833499481</v>
+        <v>7.375975331706923</v>
       </c>
       <c r="F5">
-        <v>16.05588303475736</v>
+        <v>15.84820794517102</v>
       </c>
       <c r="G5">
-        <v>19.64139689315017</v>
+        <v>18.56192038435943</v>
       </c>
       <c r="I5">
-        <v>2.780380630065402</v>
+        <v>2.814695453503498</v>
       </c>
       <c r="J5">
-        <v>8.096942119296397</v>
+        <v>8.616468716433868</v>
       </c>
       <c r="K5">
-        <v>12.92100928590539</v>
+        <v>12.68195508933199</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.6316363078145</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.211591810810473</v>
       </c>
       <c r="N5">
-        <v>6.631425452186643</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.2339976400403</v>
+        <v>6.670652102518986</v>
       </c>
       <c r="Q5">
-        <v>12.94730751971295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.23853783209361</v>
+      </c>
+      <c r="S5">
+        <v>12.78908473700699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.45150343024405</v>
+        <v>17.31570400160443</v>
       </c>
       <c r="C6">
-        <v>11.74939730336687</v>
+        <v>11.72454707014335</v>
       </c>
       <c r="D6">
-        <v>4.184238723639065</v>
+        <v>4.220473198126267</v>
       </c>
       <c r="E6">
-        <v>7.524367564356178</v>
+        <v>7.374942441671674</v>
       </c>
       <c r="F6">
-        <v>16.02673473848619</v>
+        <v>15.82074195037684</v>
       </c>
       <c r="G6">
-        <v>19.59579092404343</v>
+        <v>18.51819408892804</v>
       </c>
       <c r="I6">
-        <v>2.774253273265538</v>
+        <v>2.809738178502506</v>
       </c>
       <c r="J6">
-        <v>8.094322038293956</v>
+        <v>8.612958595075686</v>
       </c>
       <c r="K6">
-        <v>12.91974784712717</v>
+        <v>12.68142020251227</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.6335721600819</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.211359050504643</v>
       </c>
       <c r="N6">
-        <v>6.621572742254592</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.23763721049194</v>
+        <v>6.660590685837088</v>
       </c>
       <c r="Q6">
-        <v>12.93453292809378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.24118994897523</v>
+      </c>
+      <c r="S6">
+        <v>12.77738793323839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.87060464024358</v>
+        <v>17.71471642938543</v>
       </c>
       <c r="C7">
-        <v>11.88861894881141</v>
+        <v>11.88462887951403</v>
       </c>
       <c r="D7">
-        <v>4.243257270667809</v>
+        <v>4.287386025119851</v>
       </c>
       <c r="E7">
-        <v>7.517168352314801</v>
+        <v>7.366585659354645</v>
       </c>
       <c r="F7">
-        <v>16.16703854655591</v>
+        <v>15.93585375213205</v>
       </c>
       <c r="G7">
-        <v>19.79752300405271</v>
+        <v>18.80412137139983</v>
       </c>
       <c r="I7">
-        <v>2.823155211890534</v>
+        <v>2.853103228135249</v>
       </c>
       <c r="J7">
-        <v>8.094938422639558</v>
+        <v>8.579631457125043</v>
       </c>
       <c r="K7">
-        <v>12.88454463099908</v>
+        <v>12.63735598374263</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.57635249867114</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.186952145765615</v>
       </c>
       <c r="N7">
-        <v>6.697428351987655</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.22399241072106</v>
+        <v>6.737339798995448</v>
       </c>
       <c r="Q7">
-        <v>12.97717645712932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.23653671421381</v>
+      </c>
+      <c r="S7">
+        <v>12.80273462817264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.61958110658899</v>
+        <v>19.39169773825491</v>
       </c>
       <c r="C8">
-        <v>12.4676118603365</v>
+        <v>12.56470929668458</v>
       </c>
       <c r="D8">
-        <v>4.490299658548145</v>
+        <v>4.562062935505755</v>
       </c>
       <c r="E8">
-        <v>7.497931977493552</v>
+        <v>7.338574824289003</v>
       </c>
       <c r="F8">
-        <v>16.81218034644508</v>
+        <v>16.49649174193964</v>
       </c>
       <c r="G8">
-        <v>20.72771153466901</v>
+        <v>19.88547576550464</v>
       </c>
       <c r="I8">
-        <v>3.030159190958275</v>
+        <v>3.036881656848034</v>
       </c>
       <c r="J8">
-        <v>8.111610960408756</v>
+        <v>8.527585110529875</v>
       </c>
       <c r="K8">
-        <v>12.75673369557993</v>
+        <v>12.47625481978608</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.35190684161667</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.14691834373638</v>
       </c>
       <c r="N8">
-        <v>7.027295959518838</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.16768111789114</v>
+        <v>7.072248765556728</v>
       </c>
       <c r="Q8">
-        <v>13.19466230491817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.21761200378334</v>
+      </c>
+      <c r="S8">
+        <v>12.96165939107307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.66217401746912</v>
+        <v>22.32562130194862</v>
       </c>
       <c r="C9">
-        <v>13.50673476748142</v>
+        <v>13.80613390559257</v>
       </c>
       <c r="D9">
-        <v>4.931483683369927</v>
+        <v>5.043180141257996</v>
       </c>
       <c r="E9">
-        <v>7.497679211095767</v>
+        <v>7.312482294517561</v>
       </c>
       <c r="F9">
-        <v>18.12402143768258</v>
+        <v>17.68537273650599</v>
       </c>
       <c r="G9">
-        <v>22.61235238557235</v>
+        <v>21.70355174022711</v>
       </c>
       <c r="I9">
-        <v>3.410424403051191</v>
+        <v>3.375341082715805</v>
       </c>
       <c r="J9">
-        <v>8.186610455914682</v>
+        <v>8.591866369195523</v>
       </c>
       <c r="K9">
-        <v>12.58651411753605</v>
+        <v>12.24233751643436</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.96689010784017</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.302888128781778</v>
       </c>
       <c r="N9">
-        <v>7.654760761566099</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.07786261015245</v>
+        <v>7.710755315003526</v>
       </c>
       <c r="Q9">
-        <v>13.70101688061941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.19757335019766</v>
+      </c>
+      <c r="S9">
+        <v>13.37879711474961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.64395099351861</v>
+        <v>24.20986187850941</v>
       </c>
       <c r="C10">
-        <v>14.23808651915263</v>
+        <v>14.64164858551829</v>
       </c>
       <c r="D10">
-        <v>5.233475140057783</v>
+        <v>5.385308988256584</v>
       </c>
       <c r="E10">
-        <v>7.513011882896286</v>
+        <v>7.314246647365912</v>
       </c>
       <c r="F10">
-        <v>19.07777272429223</v>
+        <v>18.48058653618753</v>
       </c>
       <c r="G10">
-        <v>23.96721935526039</v>
+        <v>23.50711640865578</v>
       </c>
       <c r="I10">
-        <v>3.67723927269719</v>
+        <v>3.611537870024171</v>
       </c>
       <c r="J10">
-        <v>8.260005515854719</v>
+        <v>8.423737481692489</v>
       </c>
       <c r="K10">
-        <v>12.49224666448058</v>
+        <v>12.06454528957051</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.67374091739543</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.509170614162885</v>
       </c>
       <c r="N10">
-        <v>8.102612490085722</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.03216453522539</v>
+        <v>8.162701831697886</v>
       </c>
       <c r="Q10">
-        <v>14.09851499605235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.21439950034245</v>
+      </c>
+      <c r="S10">
+        <v>13.65256225117595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.47441865056121</v>
+        <v>24.95595091923909</v>
       </c>
       <c r="C11">
-        <v>14.58971977769582</v>
+        <v>14.98378761065929</v>
       </c>
       <c r="D11">
-        <v>5.370640270127253</v>
+        <v>5.563335780678778</v>
       </c>
       <c r="E11">
-        <v>7.515471826687244</v>
+        <v>7.324290405878423</v>
       </c>
       <c r="F11">
-        <v>19.48315807797612</v>
+        <v>18.69891805649771</v>
       </c>
       <c r="G11">
-        <v>24.53072529974295</v>
+        <v>25.11777332951934</v>
       </c>
       <c r="I11">
-        <v>3.798966869721847</v>
+        <v>3.717586663272861</v>
       </c>
       <c r="J11">
-        <v>8.289346097642351</v>
+        <v>7.978350033845014</v>
       </c>
       <c r="K11">
-        <v>12.43526115340412</v>
+        <v>11.92017500744987</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.50036177752744</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.560963015415996</v>
       </c>
       <c r="N11">
-        <v>8.305499801027684</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.02289523726915</v>
+        <v>8.361791739211997</v>
       </c>
       <c r="Q11">
-        <v>14.26450185302177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.25249209032328</v>
+      </c>
+      <c r="S11">
+        <v>13.66867034666651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.79143001956473</v>
+        <v>25.23659280225157</v>
       </c>
       <c r="C12">
-        <v>14.70591159563036</v>
+        <v>15.08884958189243</v>
       </c>
       <c r="D12">
-        <v>5.418959348998254</v>
+        <v>5.62971689419461</v>
       </c>
       <c r="E12">
-        <v>7.521677253500492</v>
+        <v>7.335149480104499</v>
       </c>
       <c r="F12">
-        <v>19.65070879473135</v>
+        <v>18.7819216808099</v>
       </c>
       <c r="G12">
-        <v>24.76917809409337</v>
+        <v>25.85170935208177</v>
       </c>
       <c r="I12">
-        <v>3.843088036300114</v>
+        <v>3.754630458543756</v>
       </c>
       <c r="J12">
-        <v>8.305930943966114</v>
+        <v>7.779946763051641</v>
       </c>
       <c r="K12">
-        <v>12.42744149590802</v>
+        <v>11.87183942481712</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.43937883857516</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.588329017895802</v>
       </c>
       <c r="N12">
-        <v>8.380044442908673</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.01625705913668</v>
+        <v>8.434187429541719</v>
       </c>
       <c r="Q12">
-        <v>14.340024007599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.26601674786353</v>
+      </c>
+      <c r="S12">
+        <v>13.67562825993479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.72545754503733</v>
+        <v>25.17865713237822</v>
       </c>
       <c r="C13">
-        <v>14.67787902064199</v>
+        <v>15.0633714731149</v>
       </c>
       <c r="D13">
-        <v>5.408030108396721</v>
+        <v>5.614768805541906</v>
       </c>
       <c r="E13">
-        <v>7.521245527374103</v>
+        <v>7.33361158761986</v>
       </c>
       <c r="F13">
-        <v>19.61749158384826</v>
+        <v>18.76752389849386</v>
       </c>
       <c r="G13">
-        <v>24.7229756114323</v>
+        <v>25.69450782214993</v>
       </c>
       <c r="I13">
-        <v>3.83322903499996</v>
+        <v>3.746124834452965</v>
       </c>
       <c r="J13">
-        <v>8.30327867856527</v>
+        <v>7.824676437314832</v>
       </c>
       <c r="K13">
-        <v>12.43154882311276</v>
+        <v>11.88481195787869</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.45405902571214</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.584768103789785</v>
       </c>
       <c r="N13">
-        <v>8.363690497528156</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.01688661807222</v>
+        <v>8.418325708799159</v>
       </c>
       <c r="Q13">
-        <v>14.32604079123535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.2621204831329</v>
+      </c>
+      <c r="S13">
+        <v>13.6769059983695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.50149244318341</v>
+        <v>24.98012454828861</v>
       </c>
       <c r="C14">
-        <v>14.59799608190593</v>
+        <v>14.99122096315221</v>
       </c>
       <c r="D14">
-        <v>5.374392983319296</v>
+        <v>5.56851693824756</v>
       </c>
       <c r="E14">
-        <v>7.516366248844268</v>
+        <v>7.325521336787574</v>
       </c>
       <c r="F14">
-        <v>19.49816824959385</v>
+        <v>18.70724768068728</v>
       </c>
       <c r="G14">
-        <v>24.5525469702282</v>
+        <v>25.17842428512572</v>
       </c>
       <c r="I14">
-        <v>3.802439247006707</v>
+        <v>3.720403432597394</v>
       </c>
       <c r="J14">
-        <v>8.291101013372742</v>
+        <v>7.962947301412342</v>
       </c>
       <c r="K14">
-        <v>12.43564544020512</v>
+        <v>11.91729505705864</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.4960129789022</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.564206311294072</v>
       </c>
       <c r="N14">
-        <v>8.311505144773932</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.02200965461629</v>
+        <v>8.36763354840523</v>
       </c>
       <c r="Q14">
-        <v>14.2716869319656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.25318571032395</v>
+      </c>
+      <c r="S14">
+        <v>13.67043821985165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.35939251433026</v>
+        <v>24.85300986028443</v>
       </c>
       <c r="C15">
-        <v>14.55498841240949</v>
+        <v>14.95237054938796</v>
       </c>
       <c r="D15">
-        <v>5.354797154644902</v>
+        <v>5.541558449897191</v>
       </c>
       <c r="E15">
-        <v>7.511620488776504</v>
+        <v>7.319096061959366</v>
       </c>
       <c r="F15">
-        <v>19.41934992634202</v>
+        <v>18.66280764822253</v>
       </c>
       <c r="G15">
-        <v>24.43783773009794</v>
+        <v>24.86463325122647</v>
       </c>
       <c r="I15">
-        <v>3.784353214337117</v>
+        <v>3.705763035077002</v>
       </c>
       <c r="J15">
-        <v>8.281855980974388</v>
+        <v>8.042088605254293</v>
       </c>
       <c r="K15">
-        <v>12.43344619269768</v>
+        <v>11.9318990128722</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.51847503580516</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.546907518501227</v>
       </c>
       <c r="N15">
-        <v>8.280112263398575</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.02674041201747</v>
+        <v>8.33706764817234</v>
       </c>
       <c r="Q15">
-        <v>14.23390846132574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.2497658918201</v>
+      </c>
+      <c r="S15">
+        <v>13.66051361142085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.55470639062575</v>
+        <v>24.12536525358144</v>
       </c>
       <c r="C16">
-        <v>14.26703724467313</v>
+        <v>14.67297042538967</v>
       </c>
       <c r="D16">
-        <v>5.233907216828699</v>
+        <v>5.383588296057265</v>
       </c>
       <c r="E16">
-        <v>7.497407299910725</v>
+        <v>7.298713115331931</v>
       </c>
       <c r="F16">
-        <v>19.00267481896732</v>
+        <v>18.4158178444028</v>
       </c>
       <c r="G16">
-        <v>23.84285528922982</v>
+        <v>23.32648086231605</v>
       </c>
       <c r="I16">
-        <v>3.675140065131979</v>
+        <v>3.613337349169027</v>
       </c>
       <c r="J16">
-        <v>8.242281520588877</v>
+        <v>8.433455951987634</v>
       </c>
       <c r="K16">
-        <v>12.45492032597166</v>
+        <v>12.03434616211496</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.65950206851928</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.469590284630594</v>
       </c>
       <c r="N16">
-        <v>8.094882542343237</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.04540889819125</v>
+        <v>8.155161231846355</v>
       </c>
       <c r="Q16">
-        <v>14.04857958238658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.22583826153406</v>
+      </c>
+      <c r="S16">
+        <v>13.61125182086159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.04750979215895</v>
+        <v>23.65740325097798</v>
       </c>
       <c r="C17">
-        <v>14.08782669930775</v>
+        <v>14.48689264744803</v>
       </c>
       <c r="D17">
-        <v>5.158344818919837</v>
+        <v>5.289927919358522</v>
       </c>
       <c r="E17">
-        <v>7.489843463844072</v>
+        <v>7.290400327411787</v>
       </c>
       <c r="F17">
-        <v>18.74647474854408</v>
+        <v>18.2396537177469</v>
       </c>
       <c r="G17">
-        <v>23.47634613221797</v>
+        <v>22.55619269654995</v>
       </c>
       <c r="I17">
-        <v>3.607629704524106</v>
+        <v>3.55552731844207</v>
       </c>
       <c r="J17">
-        <v>8.21931646201419</v>
+        <v>8.602142742128411</v>
       </c>
       <c r="K17">
-        <v>12.47069535817683</v>
+        <v>12.08847945391288</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.74078164775473</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.418124094502118</v>
       </c>
       <c r="N17">
-        <v>7.98021402545408</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.05788786083492</v>
+        <v>8.041317322611791</v>
       </c>
       <c r="Q17">
-        <v>13.93670826617604</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.21632261720295</v>
+      </c>
+      <c r="S17">
+        <v>13.56273232043023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.76137200377249</v>
+        <v>23.3909066544525</v>
       </c>
       <c r="C18">
-        <v>13.96773272763401</v>
+        <v>14.35749833691816</v>
       </c>
       <c r="D18">
-        <v>5.11143464877136</v>
+        <v>5.234259401298181</v>
       </c>
       <c r="E18">
-        <v>7.490619385412257</v>
+        <v>7.291669757381017</v>
       </c>
       <c r="F18">
-        <v>18.61395946269391</v>
+        <v>18.1444719159074</v>
       </c>
       <c r="G18">
-        <v>23.29215287646467</v>
+        <v>22.20406445860982</v>
       </c>
       <c r="I18">
-        <v>3.566007712546609</v>
+        <v>3.518189754738756</v>
       </c>
       <c r="J18">
-        <v>8.211422869396081</v>
+        <v>8.675624342194475</v>
       </c>
       <c r="K18">
-        <v>12.49315122029592</v>
+        <v>12.12843001778692</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.79349701995408</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.39805460551893</v>
       </c>
       <c r="N18">
-        <v>7.912154483132161</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.06168215778004</v>
+        <v>7.973284882164178</v>
       </c>
       <c r="Q18">
-        <v>13.88506682975602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.20861965655376</v>
+      </c>
+      <c r="S18">
+        <v>13.54025369184607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.65548306333327</v>
+        <v>23.2911214835901</v>
       </c>
       <c r="C19">
-        <v>13.93930374143094</v>
+        <v>14.32583632793524</v>
       </c>
       <c r="D19">
-        <v>5.097727711859263</v>
+        <v>5.217907244290002</v>
       </c>
       <c r="E19">
-        <v>7.487321582898297</v>
+        <v>7.288787750686827</v>
       </c>
       <c r="F19">
-        <v>18.55750510474666</v>
+        <v>18.09916945821484</v>
       </c>
       <c r="G19">
-        <v>23.20883937759333</v>
+        <v>22.07440114337015</v>
       </c>
       <c r="I19">
-        <v>3.55381381820685</v>
+        <v>3.508204185675342</v>
       </c>
       <c r="J19">
-        <v>8.205099796922056</v>
+        <v>8.692150092929626</v>
       </c>
       <c r="K19">
-        <v>12.4913021672019</v>
+        <v>12.13233082541507</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.80489653771034</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.382863328063766</v>
       </c>
       <c r="N19">
-        <v>7.89039210647343</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.06592618038393</v>
+        <v>7.951467171489446</v>
       </c>
       <c r="Q19">
-        <v>13.85843249550699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.20940972404438</v>
+      </c>
+      <c r="S19">
+        <v>13.52236665245651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.10283942608774</v>
+        <v>23.70886679495608</v>
       </c>
       <c r="C20">
-        <v>14.10574599344972</v>
+        <v>14.50593753084993</v>
       </c>
       <c r="D20">
-        <v>5.16621263346893</v>
+        <v>5.299543432556633</v>
       </c>
       <c r="E20">
-        <v>7.490974474194684</v>
+        <v>7.291494748004958</v>
       </c>
       <c r="F20">
-        <v>18.77493503000067</v>
+        <v>18.26049922753126</v>
       </c>
       <c r="G20">
-        <v>23.51752180958552</v>
+        <v>22.63377315676735</v>
       </c>
       <c r="I20">
-        <v>3.614628050076227</v>
+        <v>3.561433183693797</v>
       </c>
       <c r="J20">
-        <v>8.222090833515859</v>
+        <v>8.587410412033769</v>
       </c>
       <c r="K20">
-        <v>12.46989715292696</v>
+        <v>12.08395991732261</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.73294487750477</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.424570849005837</v>
       </c>
       <c r="N20">
-        <v>7.992323151988</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.05622460000362</v>
+        <v>8.053383061375225</v>
       </c>
       <c r="Q20">
-        <v>13.94948635217872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.21683020918804</v>
+      </c>
+      <c r="S20">
+        <v>13.56950492855156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.5564079397147</v>
+        <v>25.01273512716096</v>
       </c>
       <c r="C21">
-        <v>14.63878128754297</v>
+        <v>15.01100775297947</v>
       </c>
       <c r="D21">
-        <v>5.387434215106052</v>
+        <v>5.593552362113549</v>
       </c>
       <c r="E21">
-        <v>7.512549284408164</v>
+        <v>7.327716045738979</v>
       </c>
       <c r="F21">
-        <v>19.51721391109839</v>
+        <v>18.66808626551742</v>
       </c>
       <c r="G21">
-        <v>24.57389307627788</v>
+        <v>25.60182994343108</v>
       </c>
       <c r="I21">
-        <v>3.813830996185212</v>
+        <v>3.730097529846837</v>
       </c>
       <c r="J21">
-        <v>8.289315750993705</v>
+        <v>7.798033414095723</v>
       </c>
       <c r="K21">
-        <v>12.4204611878045</v>
+        <v>11.87779225651665</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.46511631247963</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.541968583470235</v>
       </c>
       <c r="N21">
-        <v>8.328693774310873</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.02480841019747</v>
+        <v>8.382465213416669</v>
       </c>
       <c r="Q21">
-        <v>14.27456722286342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.26676283291808</v>
+      </c>
+      <c r="S21">
+        <v>13.62662176272611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.476361468082</v>
+        <v>25.83363581440794</v>
       </c>
       <c r="C22">
-        <v>14.95668060493743</v>
+        <v>15.30318644867175</v>
       </c>
       <c r="D22">
-        <v>5.523396782700351</v>
+        <v>5.778628543443958</v>
       </c>
       <c r="E22">
-        <v>7.537156599034213</v>
+        <v>7.364558229817542</v>
       </c>
       <c r="F22">
-        <v>20.0202380776884</v>
+        <v>18.94055794286448</v>
       </c>
       <c r="G22">
-        <v>25.29515153333698</v>
+        <v>27.64414779282414</v>
       </c>
       <c r="I22">
-        <v>3.939295990237734</v>
+        <v>3.834735761122804</v>
       </c>
       <c r="J22">
-        <v>8.344407033002325</v>
+        <v>7.302194654982015</v>
       </c>
       <c r="K22">
-        <v>12.41471321336211</v>
+        <v>11.7570747144445</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.30136685237478</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.643792693062744</v>
       </c>
       <c r="N22">
-        <v>8.542593967054019</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.0022462843104</v>
+        <v>8.590723043326731</v>
       </c>
       <c r="Q22">
-        <v>14.50944658599797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.30114362633804</v>
+      </c>
+      <c r="S22">
+        <v>13.67258873132516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.00259714105574</v>
+        <v>25.42308496264455</v>
       </c>
       <c r="C23">
-        <v>14.76710628384111</v>
+        <v>15.14043724009368</v>
       </c>
       <c r="D23">
-        <v>5.447500591676097</v>
+        <v>5.670600130762234</v>
       </c>
       <c r="E23">
-        <v>7.5299661327418</v>
+        <v>7.346935539537884</v>
       </c>
       <c r="F23">
-        <v>19.77119135468498</v>
+        <v>18.84396319540339</v>
       </c>
       <c r="G23">
-        <v>24.94513061617478</v>
+        <v>26.37520544320934</v>
       </c>
       <c r="I23">
-        <v>3.870012826046005</v>
+        <v>3.776148161207415</v>
       </c>
       <c r="J23">
-        <v>8.321024159511776</v>
+        <v>7.647449789277323</v>
       </c>
       <c r="K23">
-        <v>12.43375640006812</v>
+        <v>11.84926796545979</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.40540795449402</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.614707445742838</v>
       </c>
       <c r="N23">
-        <v>8.426573780879689</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.00873615397098</v>
+        <v>8.479122976726375</v>
       </c>
       <c r="Q23">
-        <v>14.39923050869976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.27194286222617</v>
+      </c>
+      <c r="S23">
+        <v>13.6870947000994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.09998686764589</v>
+        <v>23.70786433993636</v>
       </c>
       <c r="C24">
-        <v>14.06385084100957</v>
+        <v>14.46171961842178</v>
       </c>
       <c r="D24">
-        <v>5.156486910692068</v>
+        <v>5.288933015458334</v>
       </c>
       <c r="E24">
-        <v>7.500423838246611</v>
+        <v>7.300741564282455</v>
       </c>
       <c r="F24">
-        <v>18.79359235318425</v>
+        <v>18.28263794096136</v>
       </c>
       <c r="G24">
-        <v>23.55576030602348</v>
+        <v>22.65640397822317</v>
       </c>
       <c r="I24">
-        <v>3.60682422276891</v>
+        <v>3.552071232398234</v>
       </c>
       <c r="J24">
-        <v>8.231059613417344</v>
+        <v>8.603509174087833</v>
       </c>
       <c r="K24">
-        <v>12.49664789227575</v>
+        <v>12.11103126235174</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.75304785056</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.444398012952464</v>
       </c>
       <c r="N24">
-        <v>7.983196523186953</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.04899747167597</v>
+        <v>8.044252671006785</v>
       </c>
       <c r="Q24">
-        <v>13.96904004887154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.20804029769665</v>
+      </c>
+      <c r="S24">
+        <v>13.59155581444987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.85948219157819</v>
+        <v>21.55761252014602</v>
       </c>
       <c r="C25">
-        <v>13.26682483192626</v>
+        <v>13.5240590008549</v>
       </c>
       <c r="D25">
-        <v>4.822532215938952</v>
+        <v>4.920475268722833</v>
       </c>
       <c r="E25">
-        <v>7.484915187248434</v>
+        <v>7.305451319598395</v>
       </c>
       <c r="F25">
-        <v>17.73651962634904</v>
+        <v>17.34874956590733</v>
       </c>
       <c r="G25">
-        <v>22.04555179302886</v>
+        <v>21.0232744495176</v>
       </c>
       <c r="I25">
-        <v>3.313281144871949</v>
+        <v>3.291477532479453</v>
       </c>
       <c r="J25">
-        <v>8.152678382520623</v>
+        <v>8.619164903283734</v>
       </c>
       <c r="K25">
-        <v>12.6006437866575</v>
+        <v>12.2831266335902</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.05601902585889</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.223614923767741</v>
       </c>
       <c r="N25">
-        <v>7.49096812181701</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.10645988704086</v>
+        <v>7.544942750786173</v>
       </c>
       <c r="Q25">
-        <v>13.53295590073098</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.20532398155346</v>
+      </c>
+      <c r="S25">
+        <v>13.24939582592782</v>
       </c>
     </row>
   </sheetData>
